--- a/data/input_excel/IEEE_self_correct_language.xlsx
+++ b/data/input_excel/IEEE_self_correct_language.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,220 +478,496 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021 IEEE International Conference on Pervasive Computing and Communications Workshops and other Affiliated Events (PerCom Workshops)</t>
+          <t>2024 IEEE International Conference on Cluster Computing Workshops (CLUSTER Workshops)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pronunciation Training through Sensing of Tongue and Lip Motion via Smartphone</t>
+          <t>LASSI: An LLM-Based Automated Self-Correcting Pipeline for Translating Parallel Scientific Codes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>420-421</t>
+          <t>136-143</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Learning a foreign language pronunciation is the most challenging task for non-native speakers. Compared to scoring feedback on pronunciation assessment, informative feedback for a self-correct pronunciation training system is still left behind. To bring this to an end, we propose a pronunciation training system that can give articulation feedback to a user. Our approach focuses on correcting the user's articulation. We employ simultaneously two ranges of acoustic signals, both speech and ultrasonic signal, to recognize lip shape and tongue position. The proposed technique is also implemented into an off-the-shelf smartphone to be more accessible. Our system is currently working on 30 vowels in four languages: French, Japanese, Korean, and Mandarin Chinese.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>This paper addresses the problem of providing a novel approach to sourcing significant training data for LLMs focused on science and engineering. In particular, a crucial challenge is sourcing parallel scientific codes in the ranges of millions to billions of codes. To tackle this problem, we propose an automated pipeline framework called LASSI, designed to translate between parallel programming languages by bootstrapping existing closed- or open-source LLMs. LASSI incorporates autonomous enhancement through self-correcting loops where errors encountered during the compilation and execution of generated code are fed back to the LLM through guided prompting for debugging and refactoring. We highlight the bidirectional translation of existing GPU benchmarks between OpenMP target offload and CUDA to validate LASSI. The results of evaluating LASSI with different application codes across four LLMs demonstrate the effectiveness of LASSI for generating executable parallel codes, with 80% of OpenMP to CUDA translations and 85% of CUDA to OpenMP translations producing the expected output. We also observe approximately 78% of OpenMP to CUDA translations and 62% of CUDA to OpenMP translations execute within 10% of or at a faster runtime than the original benchmark code in the same language.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Codes;Runtime;Parallel programming;Conferences;Large language models;Pipelines;Graphics processing units;Training data;Debugging;Benchmark testing;Large Language Models (LLMs);Code Generation;Code Translation;Parallel Scientific Codes;Self-Correcting</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.1109/PerComWorkshops51409.2021.9430957</t>
+          <t>10.1109/CLUSTERWorkshops61563.2024.00029</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wong, Aslan B., Wu, Kaishun</t>
+          <t>Dearing, Matthew T., Tao, Yiheng, Wu, Xingfu, Lan, Zhiling, Taylor, Valerie</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2009 WRI World Congress on Computer Science and Information Engineering</t>
+          <t>2024 4th International Signal Processing, Communications and Engineering Management Conference (ISPCEM)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Research of Printed Yi Character Recognition</t>
+          <t>Advancements in Natural Language Understanding and Applications: A Study on ChatGPT with Novel Approaches to Fairness and Accuracy in Education</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>541-545</t>
+          <t>489-494</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>This paper describes the detailed process required to accomplish the printed Yi optical character recognition, including pretreatment, feature extraction and pattern classification. The arithmetic of Yi multifont’s feature extraction, the arithmetic of recognition required for dictionary building and the arithmetic of multilevel Yi character matching were analyzed with particular emphases. An OCR software based on Windows with self-correcting ability was developed. Its one-time accurate identification of samples was above 99.5%. This result proved that the arithmetic used is feasible and efficient.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Natural Language Processing (NLP) has evolved significantly since the 1950s, with early research focusing on tasks like machine translation, information retrieval, and text summarization. Initially, most NLP research emphasized syntactic analysis, but the challenge of understanding and processing unstructured text remained. Recent advancements in large-scale language models (LLMs), such as ChatGPT, have revolutionized the field by enabling zero-shot execution of various NLP tasks without task-specific training. ChatGPT, based on the Transformer architecture, represents a major breakthrough in NLP, generating high-quality natural language responses and self-correcting based on dialogue context. This paper investigates the applications of ChatGPT in educational tasks, focusing on enhancing the fairness and accuracy of its responses. Fairness refers to ensuring that users receive consistent and unbiased answers to the same queries, while accuracy involves improving the precision of ChatGPT's outputs, particularly in complex educational tasks such as scientific literature review and content comprehension. We propose novel solutions, including dynamic model weighting for fairness and integrating external knowledge bases to boost accuracy. Experiments conducted on educational tasks demonstrate significant improvements in both fairness and accuracy, showing that the proposed methods enable ChatGPT to provide more reliable and consistent educational support. Our findings suggest that, with these innovations, ChatGPT can play a pivotal role in improving educational outcomes by offering fair access to quality learning content while addressing accuracy challenges. Future work will explore expanding this approach to other fields where NLP plays a crucial role.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Training;Technological innovation;Accuracy;Computational modeling;Knowledge based systems;Focusing;Text summarization;Chatbots;Transformers;Natural language processing;ChatGPT;Natural Language Processing;Deep Learning;Fairness in AI;Accuracy Enhancement</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.1109/CSIE.2009.563</t>
+          <t>10.1109/ISPCEM64498.2024.00088</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Zhu, Zongxiao, Wu, Xianli, Liu, Sai, Tian, Wei, Chen, Li</t>
+          <t>Guo, Siyuan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2021 IEEE International Conference on Pervasive Computing and Communications Workshops and other Affiliated Events (PerCom Workshops)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pronunciation Training through Sensing of Tongue and Lip Motion via Smartphone</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>420-421</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Learning a foreign language pronunciation is the most challenging task for non-native speakers. Compared to scoring feedback on pronunciation assessment, informative feedback for a self-correct pronunciation training system is still left behind. To bring this to an end, we propose a pronunciation training system that can give articulation feedback to a user. Our approach focuses on correcting the user's articulation. We employ simultaneously two ranges of acoustic signals, both speech and ultrasonic signal, to recognize lip shape and tongue position. The proposed technique is also implemented into an off-the-shelf smartphone to be more accessible. Our system is currently working on 30 vowels in four languages: French, Japanese, Korean, and Mandarin Chinese.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Training;Pervasive computing;Tongue;Shape;Conferences;Lips;Speech recognition;acoustic sensing;articulation detection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1109/PerComWorkshops51409.2021.9430957</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wong, Aslan B., Wu, Kaishun</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2009 WRI World Congress on Computer Science and Information Engineering</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Research of Printed Yi Character Recognition</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>541-545</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>This paper describes the detailed process required to accomplish the printed Yi optical character recognition, including pretreatment, feature extraction and pattern classification. The arithmetic of Yi multifont’s feature extraction, the arithmetic of recognition required for dictionary building and the arithmetic of multilevel Yi character matching were analyzed with particular emphases. An OCR software based on Windows with self-correcting ability was developed. Its one-time accurate identification of samples was above 99.5%. This result proved that the arithmetic used is feasible and efficient.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Character recognition;Arithmetic;Optical character recognition software;Feature extraction;Educational institutions;Dictionaries;Natural languages;Computer science;Windows;Optical recording;Yi character recognition;feature extraction;multi-level matching</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.1109/CSIE.2009.563</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zhu, Zongxiao, Wu, Xianli, Liu, Sai, Tian, Wei, Chen, Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Student-AI Question Cocreation for Enhancing Reading Comprehension</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>815-826</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student question generation (SQG) is an effective strategy for improving reading comprehension. It helps students improve their understanding of reading materials, metacognitively monitor their comprehension, and self-correct comprehension gaps. Internet technologies have been used to facilitate SQG process through intensive peer support. However, the availability, level of task commitment, and capabilities of student peers have emerged as significant concerns, particularly in light of the global pandemic and the subsequent postpandemic era. Thus, this article presents a student–artificial intelligence (AI) cocreation tool called CoAsker for supporting question generation. Following recent human-computer interaction (HCI) research in human-AI collaborative writing, CoAsker first allows students to provide question clues and answers and then uses a state-of-the-art pretrained language model, T5-PEGASUS, to generate questions. Finally, the student can use this AI question directly or perform reflection by comparing his or her questions with the AI question. An empirical study was conducted to examine the quality of AI questions and the effect of this tool on student engagement and reading comprehension. The results of the study show that students using this tool (treatment) were more engaged in generating low-level cognitive questions and performed better in acquiring knowledge than those using a traditional online question generation tool (control). These results indicate that student-AI question cocreation is beneficial to SQG training and educational assessment for reading comprehension, such as repeated practices.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Writing;Artificial intelligence;Computational modeling;Task analysis;Internet;Human computer interaction;Federated learning;Authoring systems;educational technology;natural language processing</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.1109/TLT.2023.3333439</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liu, Ming, Zhang, Jingxu, Nyagoga, Lucy Michael, Liu, Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024 China Automation Congress (CAC)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HiCRISP: An LLM-Based Hierarchical Closed-Loop Robotic Intelligent Self-Correction Planner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4310-4315</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The integration of Large Language Models (LLMs) into robotics has revolutionized human-robot interactions and autonomous task planning. However, these systems are often unable to self-correct during the task execution, which hinders their adaptability in dynamic real-world environments. To address this issue, we present an LLM-based Hierarchical Closed-loop Robotic Intelligent Self-correction Planner (Hi-CRISP), an innovative framework that enables robots to correct errors within individual steps during the task execution. HiCRISP actively monitors and adapts the task execution process, addressing both high-level planning and low-level action errors. Extensive benchmark experiments, encompassing virtual and real-world scenarios, showcase HiCRISP's exceptional performance, positioning it as a promising solution for robotic task planning with LLMs.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Automation;Large language models;Human-robot interaction;Benchmark testing;Planning;Robots;Monitoring</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.1109/CAC63892.2024.10865457</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ming, Chenlin, Lin, Jiacheng, Fong, Pangkit, Wang, Han, Duan, Xiaoming, He, Jianping</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>ICASSP 2022 - 2022 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Robust Unstructured Knowledge Access in Conversational Dialogue with ASR Errors</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>6702-6706</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Performance of spoken language understanding (SLU) can be degraded with automatic speech recognition (ASR) errors. We propose a novel approach to improve SLU robustness by randomly corrupting clean training text with an ASR error simulator, followed by self-correcting the errors and minimizing the target classification loss in a joint manner. In the proposed error simulator, we leverage confusion networks generated from an ASR decoder without human transcriptions to generate variety of error patterns for model training. We evaluate our approach on DSTC10 challenge targeted for knowledge-grounded task-oriented conversational dialogues with ASR errors. Experimental results show effectiveness of our proposed approach, boosting the knowledge-seeking turn detection (KTD) F1 significantly from 0.9433 to 0.9904. Knowledge cluster classification is boosted from 0.7924 to 0.9333 in Recall@1. After knowledge document re-ranking, our approach shows significant improvement in all knowledge selection metrics, from 0.7358 to 0.7806 in Recall@1, from 0.8301 to 0.9333 in Recall@5, and from 0.7798 to 0.8460 in MRR@5 (Mean Reciprocal Rank) on the test set. On the recent DSTC10 evaluation, our approach demonstrates significant improvement in knowledge selection, boosting Recall@1 from 0.495 to 0.7105 compared to the official baseline. Our source code is released in GitHub1.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Training;Measurement;Codes;Conferences;Boosting;Robustness;Error correction;ASR error simulation;joint error correction and classification;knowledge turn detection;knowledge selection;DSTC10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>10.1109/ICASSP43922.2022.9746741</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tam, Yik-Cheung, Xu, Jiacheng, Zou, Jiakai, Wang, Zecheng, Liao, Tinglong, Yuan, Shuhan</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023 International Conference on Computer Science and Automation Technology (CSAT)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Design of English Speaking Training System Based on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>239-243</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>How to solve the lack of realtime feedback in oral training has always been a difficult problem. Human-computer interaction is very effective in providing flexibility, personalized support and realtime feedback to the system. This paper uses advanced voice input and recognition technology to accurately transcribe the learner's spoken expression, and then uses voice output and synthesis technology to communicate the voice feedback generated by the system to the learner, and finally realizes the realtime feedback and evaluation function, and gives accurate assessments and suggestions by analyzing the learner's spoken expression. After systematic testing, the pronunciation accuracy rate of students using the human-computer interaction system is 0.3-0.5. The personalized learning support and realtime feedback functions of the system help learners self-correct and improve their oral skills.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Training;Human computer interaction;Computer science;Systematics;Computational modeling;Speech recognition;Speech enhancement;English Speaking Training System;Human-Computer Interaction;Hidden Markov Model;Pronunciation Assessment Weights</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10.1109/CSAT61646.2023.00071</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ghoji, Patime, Abduwali, Aysigul, Husiyin, Maysigul</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Second International Conference on Autonomic Computing (ICAC'05)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myrrh: A Transaction-Based Model for Autonomic Recovery</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>315-325</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>As software comes under increasing scrutiny for its lack of safety and reliability, numerous static and partially dynamic tools (including model checking) have been proposed for verifying large and complex systems of interacting components. However, because these tools have been largely unsuccessful, it is essential to develop dynamic mechanisms able to enforce runtime safety properties. We aim to address this goal through a runtime system, called Myrrh, that can provide broad safety and reliability guarantees. Myrrh uses transactions, an abstraction commonly associated with database systems, in order to create autonomic capabilities that support automated recovery within the context of a general purpose programming language. The resulting code is self-correcting; exceptions cause faulty transactions to rollback and thus return the system to its previous state</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yarn;Computer science;Software safety;Database systems;Computer languages;Programming profession;Application software;Concurrent computing;Software tools;Runtime</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10.1109/ICAC.2005.43</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Eddon, G., Reiss, S.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024 20th International Conference on Distributed Computing in Smart Systems and the Internet of Things (DCOSS-IoT)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VulnGPT: Enhancing Source Code Vulnerability Detection Using AutoGPT and Adaptive Supervision Strategies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>450-454</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>In this paper, we present a novel approach to vulnerability detection in source code using a collaborative setup built on top of AutoGPT, with a controller and an evaluator AI working together. The controller oversees the evaluation process and adds a layer of self-critique to the GPT- 4 model, while the evaluator AI conducts the security assessment. By following a step-by-step interaction process, the controller prompts the evaluator AI to verify identified vulnerabilities, enabling the AI to self-correct and improve its accuracy. We discuss the results of our approach, which demonstrates the potential for effective vulnerability detection and highlights areas for improvement. Our research aims to advance the development of AI-driven security evaluation techniques to enhance the overall quality of vulnerability detection, which can be used in various areas such as IoT.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adaptive systems;Accuracy;Source coding;Process control;Collaboration;Security;Internet of Things;vulnerability detection;source code;automation;GPT</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.1109/DCOSS-IoT61029.2024.00072</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Eberhardt, Gergely, Milánkovich, Ákos</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Evolution of the Unix System Architecture: An Exploratory Case Study</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1134-1163</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Unix has evolved for almost five decades, shaping modern operating systems, key software technologies, and development practices. Studying the evolution of this remarkable system from an architectural perspective can provide insights on how to manage the growth of large, complex, and long-lived software systems. Along main Unix releases leading to the FreeBSD lineage we examine core architectural design decisions, the number of features, and code complexity, based on the analysis of source code, reference documentation, and related publications. We report that the growth in size has been uniform, with some notable outliers, while cyclomatic complexity has been religiously safeguarded. A large number of Unix-defining design decisions were implemented right from the very early beginning, with most of them still playing a major role. Unix continues to evolve from an architectural perspective, but the rate of architectural innovation has slowed down over the system's lifetime. Architectural technical debt has accrued in the forms of functionality duplication and unused facilities, but in terms of cyclomatic complexity it is systematically being paid back through what appears to be a self-correcting process. Some unsung architectural forces that shaped Unix are the emphasis on conventions over rigid enforcement, the drive for portability, a sophisticated ecosystem of other operating systems and development organizations, and the emergence of a federated architecture, often through the adoption of third-party subsystems. These findings have led us to form an initial theory on the architecture evolution of large, complex operating system software.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Computer architecture;Complexity theory;Evolution (biology);Linux;Kernel;Unix;software architecture;software evolution;architecture design decisions;operating systems</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>10.1109/TSE.2019.2892149</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Spinellis, Diomidis, Avgeriou, Paris</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Second International Conference on Autonomic Computing (ICAC'05)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Myrrh: A Transaction-Based Model for Autonomic Recovery</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>315-325</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>As software comes under increasing scrutiny for its lack of safety and reliability, numerous static and partially dynamic tools (including model checking) have been proposed for verifying large and complex systems of interacting components. However, because these tools have been largely unsuccessful, it is essential to develop dynamic mechanisms able to enforce runtime safety properties. We aim to address this goal through a runtime system, called Myrrh, that can provide broad safety and reliability guarantees. Myrrh uses transactions, an abstraction commonly associated with database systems, in order to create autonomic capabilities that support automated recovery within the context of a general purpose programming language. The resulting code is self-correcting; exceptions cause faulty transactions to rollback and thus return the system to its previous state</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10.1109/ICAC.2005.43</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Eddon, G., Reiss, S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Student-AI Question Co-Creation for Enhancing Reading Comprehension</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1-13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Student question generation (SQG) is an effective strategy for improving reading comprehension. It helps students improve their understanding of reading materials, metacognitively monitor their comprehension, and self-correct comprehension gaps. Internet technologies have been used to facilitate student question generation process through intensive peer support. However, the availability, level of task commitment, and capabilities of student peers have emerged as significant concerns, particularly in light of the global pandemic and the subsequent post-pandemic era. Thus, this article presents a student-Artificial Intelligence (AI) co-creation tool called CoAsker for supporting question generation. Following recent Human Computer Interaction (HCI) research in human-AI collaborative writing, CoAsker first allows students to provide question clues and answers and then uses a state-of-the-art pre-trained language model, T5-PEGASUS, to generate questions. Finally, the student can use this AI question directly or perform reflection by comparing his or her questions with the AI question. An empirical study was conducted to examine the quality of AI questions and the effect of this tool on student engagement and reading comprehension. The results of the study shows that students using this tool (treatment) were more engaged in generating low-level cognitive questions and performed better in acquiring knowledge than those using a traditional online question generation tool (control). These results indicate that student-AI question co-creation is beneficial to SQG training and educational assessment for reading comprehension, such as repeated practices.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.1109/TLT.2023.3333439</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Liu, Ming, Zhang, Jingxu, Nyagoga, Lucy Michael, Liu, Li</t>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2015 15th International Conference on Innovations for Community Services (I4CS)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A hybrid approach for simultaneous obstacle avoidance and stabilization of dynamic bipedal walking using the aldebaran nao robot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>In this paper, we propose a monocular vision system for autonomous obstacle avoidance and simultaneous stabilization of dynamic bipedal walking using the Aldebaran Nao robot. In particular, we address the case where erroneous bipedal locomotion causes the robot to drift away from a planned trajectory over time. To eliminate drifting, we use hybrid control patterns. This results in an efficient, self-correcting system that does not require to alter the robot's world representation. We confirm the efficiency and accuracy of the proposed system in a set of experiments.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Visualization;Computer architecture;Legged locomotion;Navigation;Collision avoidance;Cameras;Humanoid robots;robot control;computer vision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10.1109/I4CS.2015.7294493</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ullrich, Christian, Dotenco, Sergiu, Gallwitz, Florian</t>
         </is>
       </c>
     </row>
